--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/51.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/51.xlsx
@@ -479,13 +479,13 @@
         <v>-15.21050417296595</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.810323895847391</v>
+        <v>-8.87956908557728</v>
       </c>
       <c r="F2" t="n">
-        <v>6.589222383373221</v>
+        <v>6.445992590284738</v>
       </c>
       <c r="G2" t="n">
-        <v>-16.19939705056927</v>
+        <v>-16.10039305648014</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.08077746246988</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.978795648814721</v>
+        <v>-9.073649382903026</v>
       </c>
       <c r="F3" t="n">
-        <v>6.542221016171424</v>
+        <v>6.383097167433085</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.70598743337314</v>
+        <v>-15.63867990446383</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.80752601610853</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.022065709706627</v>
+        <v>-9.101981126252522</v>
       </c>
       <c r="F4" t="n">
-        <v>6.624545416440197</v>
+        <v>6.474429072056966</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.86852518979929</v>
+        <v>-14.80472639805156</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.38258359302226</v>
       </c>
       <c r="E5" t="n">
-        <v>-9.992283904095579</v>
+        <v>-10.07953101023284</v>
       </c>
       <c r="F5" t="n">
-        <v>6.708702739106813</v>
+        <v>6.552904335290273</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.75454041790535</v>
+        <v>-13.7179081545542</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.79554473180339</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.62282230125595</v>
+        <v>-10.68442158612627</v>
       </c>
       <c r="F6" t="n">
-        <v>6.869476218003209</v>
+        <v>6.754735275898322</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.99997863592531</v>
+        <v>-12.96053152746319</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.05920304521076</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.50520423587976</v>
+        <v>-11.55003228080983</v>
       </c>
       <c r="F7" t="n">
-        <v>7.18987105314593</v>
+        <v>7.079948078486797</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.54162702238544</v>
+        <v>-11.52825978118404</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.16879457882422</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.31328735187678</v>
+        <v>-12.35651813586015</v>
       </c>
       <c r="F8" t="n">
-        <v>7.506259643619082</v>
+        <v>7.383480027569375</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.74022098083771</v>
+        <v>-10.75083883844234</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.14578925698157</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.10512292004721</v>
+        <v>-13.11075261026915</v>
       </c>
       <c r="F9" t="n">
-        <v>7.555984209811957</v>
+        <v>7.449386680074624</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.40680921331643</v>
+        <v>-9.432273742343588</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.00510048493737</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.17675409224817</v>
+        <v>-14.17662316921976</v>
       </c>
       <c r="F10" t="n">
-        <v>7.696543173120729</v>
+        <v>7.582613953792028</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.694195169641281</v>
+        <v>-8.748449672617394</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.773900919597942</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.0589527346322</v>
+        <v>-15.06265785633641</v>
       </c>
       <c r="F11" t="n">
-        <v>7.936079945912948</v>
+        <v>7.817830266646478</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.777550678480671</v>
+        <v>-7.854507234584338</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.494061043309038</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.39116001029204</v>
+        <v>-16.37835573811283</v>
       </c>
       <c r="F12" t="n">
-        <v>7.836368967470363</v>
+        <v>7.732939775020727</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.325342538327453</v>
+        <v>-7.403883263074968</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.193492318188321</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.43129110185581</v>
+        <v>-17.4148471694866</v>
       </c>
       <c r="F13" t="n">
-        <v>7.793792798629069</v>
+        <v>7.67122265942483</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.165839012806704</v>
+        <v>-7.218640270167386</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.928248997588649</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.88688023949607</v>
+        <v>-18.84253660977114</v>
       </c>
       <c r="F14" t="n">
-        <v>7.723879901454252</v>
+        <v>7.618932001874976</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.196432541193939</v>
+        <v>-6.254405258177102</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.722280736454457</v>
       </c>
       <c r="E15" t="n">
-        <v>-20.01953463524232</v>
+        <v>-19.95936241138174</v>
       </c>
       <c r="F15" t="n">
-        <v>7.755746566571013</v>
+        <v>7.633045504338357</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.737756803436908</v>
+        <v>-5.800311826414675</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.609535283182434</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.98960881430001</v>
+        <v>-20.9341629117653</v>
       </c>
       <c r="F16" t="n">
-        <v>7.639146517462601</v>
+        <v>7.507909273777139</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.110609312712547</v>
+        <v>-5.179003502757723</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.602758668141417</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.14150889522359</v>
+        <v>-22.07465959691374</v>
       </c>
       <c r="F17" t="n">
-        <v>7.984338174187551</v>
+        <v>7.840794165830866</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.284959509655812</v>
+        <v>-5.343207164998652</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.7034793719316744</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.03367078007017</v>
+        <v>-22.95629527027557</v>
       </c>
       <c r="F18" t="n">
-        <v>8.422589919511489</v>
+        <v>8.264356347366387</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.678681149661162</v>
+        <v>-4.771989992014143</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.08405491279074095</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.67031019035479</v>
+        <v>-23.57832367058882</v>
       </c>
       <c r="F19" t="n">
-        <v>8.725336330423563</v>
+        <v>8.57118755676508</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.839438352900837</v>
+        <v>-3.913174202505438</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7777827007803676</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.57794717716029</v>
+        <v>-24.48865767177972</v>
       </c>
       <c r="F20" t="n">
-        <v>8.940364312296072</v>
+        <v>8.792028521099315</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.500321524694448</v>
+        <v>-3.546851568993943</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.374825312636455</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.6027701833482</v>
+        <v>-24.52955802585727</v>
       </c>
       <c r="F21" t="n">
-        <v>8.7518613359809</v>
+        <v>8.615963232483782</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.518362718010347</v>
+        <v>-3.544848446659159</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.886108490231121</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.28048014764731</v>
+        <v>-25.19574676365566</v>
       </c>
       <c r="F22" t="n">
-        <v>9.169584350449012</v>
+        <v>9.023448066129665</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.014168226626513</v>
+        <v>-4.00876110555288</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.306190948727293</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.34976461428572</v>
+        <v>-25.2954446497954</v>
       </c>
       <c r="F23" t="n">
-        <v>8.770347667593416</v>
+        <v>8.619183938982848</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.889725888115907</v>
+        <v>-3.905790143702705</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.628264547463713</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.7798074857279</v>
+        <v>-25.71997566174121</v>
       </c>
       <c r="F24" t="n">
-        <v>8.750944874781979</v>
+        <v>8.592842225665295</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.819603514095622</v>
+        <v>-3.817207622675586</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.841411892505691</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.75772077083391</v>
+        <v>-25.7039375907601</v>
       </c>
       <c r="F25" t="n">
-        <v>8.905224571468878</v>
+        <v>8.727745314146441</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.677185443783326</v>
+        <v>-3.682121241954657</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.931681453740016</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.08341798862753</v>
+        <v>-26.03133680792314</v>
       </c>
       <c r="F26" t="n">
-        <v>8.80396870129097</v>
+        <v>8.618895908320329</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.51876857939844</v>
+        <v>-3.512824673908297</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.888116868733485</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.07963431310627</v>
+        <v>-26.02386110300052</v>
       </c>
       <c r="F27" t="n">
-        <v>8.682629238553853</v>
+        <v>8.510989148298824</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.697949836090304</v>
+        <v>-3.666489032361636</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.703671987503967</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.98684916286696</v>
+        <v>-25.94944445364814</v>
       </c>
       <c r="F28" t="n">
-        <v>8.57550801670285</v>
+        <v>8.405700848845662</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.951063326929394</v>
+        <v>-3.924904905851625</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.378935136752246</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.77040721228754</v>
+        <v>-25.74451063726661</v>
       </c>
       <c r="F29" t="n">
-        <v>8.499834506277672</v>
+        <v>8.341129611230269</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.779344682857314</v>
+        <v>-3.73827412884282</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.920208390776981</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.69997062299905</v>
+        <v>-25.64828221137992</v>
       </c>
       <c r="F30" t="n">
-        <v>8.589804811406015</v>
+        <v>8.441573758631991</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.906012712851014</v>
+        <v>-3.870912248932346</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.342879113886625</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.39376784413676</v>
+        <v>-25.336672311444</v>
       </c>
       <c r="F31" t="n">
-        <v>8.424815610994582</v>
+        <v>8.263649363012934</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.351124824864017</v>
+        <v>-4.309844794004055</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6632392576795504</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.94411270303768</v>
+        <v>-24.89159947633952</v>
       </c>
       <c r="F32" t="n">
-        <v>8.620964492169323</v>
+        <v>8.451811939454222</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.21757024357557</v>
+        <v>-4.184459809688844</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.08896935323326137</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.82125453317093</v>
+        <v>-24.77227622824003</v>
       </c>
       <c r="F33" t="n">
-        <v>8.682131731045867</v>
+        <v>8.504861950568896</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.3509939018356</v>
+        <v>-4.316888452932903</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.8914393333996747</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.45194685461152</v>
+        <v>-24.39482513731307</v>
       </c>
       <c r="F34" t="n">
-        <v>8.813316605519962</v>
+        <v>8.634397194884933</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.363601789472182</v>
+        <v>-4.337521922211463</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.707742466778489</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.24163210176203</v>
+        <v>-24.21302542005286</v>
       </c>
       <c r="F35" t="n">
-        <v>8.709782674647592</v>
+        <v>8.521855759657456</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.514346564391816</v>
+        <v>-4.492089649560882</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.507610563105492</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.9438869505355</v>
+        <v>-23.90082636648906</v>
       </c>
       <c r="F36" t="n">
-        <v>8.862884064078736</v>
+        <v>8.686111791109751</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.379862429601606</v>
+        <v>-4.371575001902793</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.260680267542726</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.29072505406462</v>
+        <v>-23.27412401406131</v>
       </c>
       <c r="F37" t="n">
-        <v>8.814468728170034</v>
+        <v>8.631595442076804</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.477897593280451</v>
+        <v>-4.487258589812285</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.937528070697981</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.85392655435612</v>
+        <v>-22.80507917245364</v>
       </c>
       <c r="F38" t="n">
-        <v>8.848901484643774</v>
+        <v>8.657230171040904</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.507878966788003</v>
+        <v>-4.49131720369322</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.523705963876115</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.69111067621641</v>
+        <v>-22.64155630996048</v>
       </c>
       <c r="F39" t="n">
-        <v>8.978462913565494</v>
+        <v>8.809388914667444</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.785357233215546</v>
+        <v>-4.760691334661733</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.001722198667332</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.99115688938921</v>
+        <v>-21.93924590862177</v>
       </c>
       <c r="F40" t="n">
-        <v>9.288305352617783</v>
+        <v>9.107003142865562</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.707078354524866</v>
+        <v>-4.691812729411413</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.375962693578918</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.30244939070305</v>
+        <v>-21.22866117188708</v>
       </c>
       <c r="F41" t="n">
-        <v>9.255993549204403</v>
+        <v>9.081551706141246</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.748790431378604</v>
+        <v>-4.73639202058749</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.648323039892889</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.59834534387502</v>
+        <v>-20.53415378304204</v>
       </c>
       <c r="F42" t="n">
-        <v>9.205300152601239</v>
+        <v>9.048611472191462</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.06626568298762</v>
+        <v>-5.064406575984095</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.831207643417542</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.74809192042481</v>
+        <v>-19.65175875611539</v>
       </c>
       <c r="F43" t="n">
-        <v>9.337296749851523</v>
+        <v>9.180215300356494</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.219733656898333</v>
+        <v>-5.221618948507541</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.941974249150885</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.08228285940883</v>
+        <v>-18.99159247762419</v>
       </c>
       <c r="F44" t="n">
-        <v>9.03174858613132</v>
+        <v>8.896793128438807</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.007036104931651</v>
+        <v>-4.990421972625501</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.995974329262724</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.5319871863654</v>
+        <v>-18.48734243367511</v>
       </c>
       <c r="F45" t="n">
-        <v>9.09849314601844</v>
+        <v>8.972388085046934</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.107270775487907</v>
+        <v>-5.132813858332113</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.017040249321177</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.92192515084949</v>
+        <v>-17.85249666887982</v>
       </c>
       <c r="F46" t="n">
-        <v>9.119336092142467</v>
+        <v>8.997368198868946</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.222129548318369</v>
+        <v>-5.256261181826749</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.019799242858331</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.79724715088773</v>
+        <v>-17.7320343904331</v>
       </c>
       <c r="F47" t="n">
-        <v>8.988858202021826</v>
+        <v>8.8621508951196</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.543624136899794</v>
+        <v>-5.56725574352911</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.023095137124668</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.12019180173071</v>
+        <v>-17.05614425622899</v>
       </c>
       <c r="F48" t="n">
-        <v>8.877102304964851</v>
+        <v>8.775767880969891</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.635885595025438</v>
+        <v>-5.665644399384681</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.038677513870719</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.22936533177398</v>
+        <v>-16.17010956911233</v>
       </c>
       <c r="F49" t="n">
-        <v>8.805277931575143</v>
+        <v>8.695931018241046</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.786669646853597</v>
+        <v>-5.836079997778271</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.072805681631996</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.68083711961419</v>
+        <v>-15.61592548212491</v>
       </c>
       <c r="F50" t="n">
-        <v>8.550894487360404</v>
+        <v>8.441390466392207</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.05656746993578</v>
+        <v>-6.092073795242541</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.134271679988695</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.94578286886832</v>
+        <v>-14.89038933554498</v>
       </c>
       <c r="F51" t="n">
-        <v>8.332986198862717</v>
+        <v>8.233667989505381</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.976481853452942</v>
+        <v>-6.017997545764055</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.222540907864611</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.24708594311392</v>
+        <v>-14.18555211975781</v>
       </c>
       <c r="F52" t="n">
-        <v>8.173600504067542</v>
+        <v>8.079859615720784</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.074255171074951</v>
+        <v>-6.138734762570452</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.34214185297182</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.76413707588833</v>
+        <v>-13.70774852754902</v>
       </c>
       <c r="F53" t="n">
-        <v>8.239219125910274</v>
+        <v>8.145582975986249</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.126519644019123</v>
+        <v>-6.17223796554243</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.491031027458064</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.36516223908957</v>
+        <v>-13.28986840544681</v>
       </c>
       <c r="F54" t="n">
-        <v>8.028040281073233</v>
+        <v>7.928774440927265</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.35458755952199</v>
+        <v>-6.397464851328643</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.672389964772072</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.79030540591507</v>
+        <v>-12.70821666709744</v>
       </c>
       <c r="F55" t="n">
-        <v>7.940033821371149</v>
+        <v>7.846842809743744</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.704165137698918</v>
+        <v>-6.755801180106686</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.889909516196464</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.4559018067317</v>
+        <v>-12.39931687384976</v>
       </c>
       <c r="F56" t="n">
-        <v>8.032413110222368</v>
+        <v>7.925030042314532</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.614234109479102</v>
+        <v>-6.669352704442768</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.143300209279022</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.0035758358529</v>
+        <v>-11.94136121274902</v>
       </c>
       <c r="F57" t="n">
-        <v>7.645980699545982</v>
+        <v>7.539356985202965</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.847774607569812</v>
+        <v>-6.900981726318586</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.440913588423025</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.53340505620084</v>
+        <v>-11.49882828439584</v>
       </c>
       <c r="F58" t="n">
-        <v>7.800338950049932</v>
+        <v>7.714348704985476</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.69667952382733</v>
+        <v>-7.732316772162508</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.780108318826684</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.57649182485296</v>
+        <v>-11.5414568224485</v>
       </c>
       <c r="F59" t="n">
-        <v>7.660644078728716</v>
+        <v>7.565515406280734</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.691429510387797</v>
+        <v>-7.702872183071466</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.16733227571863</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.41700139163505</v>
+        <v>-11.34788712493358</v>
       </c>
       <c r="F60" t="n">
-        <v>7.50010626128347</v>
+        <v>7.401390297856856</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.930141468100989</v>
+        <v>-7.946965077252607</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.597591748562321</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.44655071914883</v>
+        <v>-11.39916967516462</v>
       </c>
       <c r="F61" t="n">
-        <v>7.306863871339593</v>
+        <v>7.219878611259166</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.389105236520537</v>
+        <v>-8.408586583149026</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.068950948344932</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.61620077937191</v>
+        <v>-11.54610458995731</v>
       </c>
       <c r="F62" t="n">
-        <v>7.405448911737791</v>
+        <v>7.305842671717939</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.649052909443009</v>
+        <v>-8.66666205676513</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.575413735509324</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.22208318692743</v>
+        <v>-11.16510548496024</v>
       </c>
       <c r="F63" t="n">
-        <v>7.76671791635238</v>
+        <v>7.665069277089219</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.725813081004048</v>
+        <v>-8.730696509964012</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.10149191528328</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.8937151393541</v>
+        <v>-10.84721127966029</v>
       </c>
       <c r="F64" t="n">
-        <v>7.611940712157494</v>
+        <v>7.509401796301096</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.001131117462707</v>
+        <v>-8.991743936325189</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.63930873670444</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.89171201701932</v>
+        <v>-10.85214707783162</v>
       </c>
       <c r="F65" t="n">
-        <v>7.597146409946344</v>
+        <v>7.485809466580306</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.054259682394431</v>
+        <v>-9.050135606999287</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.16686945728642</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.58833717557084</v>
+        <v>-10.55195366597368</v>
       </c>
       <c r="F66" t="n">
-        <v>7.393482546940453</v>
+        <v>7.287173047865638</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.492315043175743</v>
+        <v>-9.475949664623586</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.67364127024186</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.81115507763418</v>
+        <v>-10.77872544349522</v>
       </c>
       <c r="F67" t="n">
-        <v>7.167064261595643</v>
+        <v>7.055360733750036</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.525988446084662</v>
+        <v>-9.524548292772073</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-12.14236992948909</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.00713375887197</v>
+        <v>-10.98093606088568</v>
       </c>
       <c r="F68" t="n">
-        <v>7.121660155340536</v>
+        <v>7.021189823333131</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.363696260058626</v>
+        <v>-9.358079662139525</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-12.55998851483277</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.82577917990839</v>
+        <v>-10.79176537712558</v>
       </c>
       <c r="F69" t="n">
-        <v>7.053763472803345</v>
+        <v>6.971439072534571</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.317480431027333</v>
+        <v>-9.325453643457944</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-12.91843592554455</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.11041893599035</v>
+        <v>-11.06898179749629</v>
       </c>
       <c r="F70" t="n">
-        <v>6.906894019524862</v>
+        <v>6.804878795782132</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.512869958637253</v>
+        <v>-9.496714056930564</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-13.2037047922029</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.05261641894413</v>
+        <v>-11.01709700133453</v>
       </c>
       <c r="F71" t="n">
-        <v>6.467830551424736</v>
+        <v>6.395770516583877</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.447421536731465</v>
+        <v>-9.451702719760709</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-13.41274780067592</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.0704612277174</v>
+        <v>-11.02783268966474</v>
       </c>
       <c r="F72" t="n">
-        <v>6.779584466691918</v>
+        <v>6.689928376831777</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.790099471310803</v>
+        <v>-9.772071370297747</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-13.53489782434893</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.50820237323051</v>
+        <v>-11.47378270905962</v>
       </c>
       <c r="F73" t="n">
-        <v>6.948187142687666</v>
+        <v>6.841982382035584</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.416471332813623</v>
+        <v>-9.440914662219127</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-13.56640518997017</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.66761425263137</v>
+        <v>-11.60965462795105</v>
       </c>
       <c r="F74" t="n">
-        <v>6.835069646135153</v>
+        <v>6.749550723972998</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.532730982048152</v>
+        <v>-9.544815177571065</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-13.50794901780837</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.20428083841657</v>
+        <v>-12.15398021089865</v>
       </c>
       <c r="F75" t="n">
-        <v>6.818311498497744</v>
+        <v>6.734861160184582</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.75958131338674</v>
+        <v>-9.766703526132638</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-13.35651817546509</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.04638766614535</v>
+        <v>-11.99723916127751</v>
       </c>
       <c r="F76" t="n">
-        <v>6.71747458201077</v>
+        <v>6.626325969626673</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.839536006841161</v>
+        <v>-9.849525433909397</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-13.11935279879648</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.7937355892596</v>
+        <v>-12.74301600805075</v>
       </c>
       <c r="F77" t="n">
-        <v>6.650441991461132</v>
+        <v>6.559607594345237</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.548821422240634</v>
+        <v>-9.581198687168222</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-12.79670559915032</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.48448548718907</v>
+        <v>-13.43447289033367</v>
       </c>
       <c r="F78" t="n">
-        <v>6.693541852416094</v>
+        <v>6.610379544765451</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.883352761098539</v>
+        <v>-8.908712551702962</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.39451681679401</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.67666740060276</v>
+        <v>-13.64184187504377</v>
       </c>
       <c r="F79" t="n">
-        <v>6.884008674157525</v>
+        <v>6.813703007897456</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.167141517495793</v>
+        <v>-9.188115386648239</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.92045145369501</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.28790774337443</v>
+        <v>-14.24488643623651</v>
       </c>
       <c r="F80" t="n">
-        <v>6.860547267465152</v>
+        <v>6.792153077419975</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.530633030239597</v>
+        <v>-8.559750311759595</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.37522731534651</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.86090546954541</v>
+        <v>-14.83561114045519</v>
       </c>
       <c r="F81" t="n">
-        <v>7.001341892225074</v>
+        <v>6.929491334229681</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.370226135822769</v>
+        <v>-8.409110275262695</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.77331192531127</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.70204665021778</v>
+        <v>-15.6765428442821</v>
       </c>
       <c r="F82" t="n">
-        <v>7.079345832556078</v>
+        <v>6.978744577520255</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.272295710566658</v>
+        <v>-8.307134328428491</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.11492184958964</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.68516076290584</v>
+        <v>-16.67988456486062</v>
       </c>
       <c r="F83" t="n">
-        <v>7.218988334665928</v>
+        <v>7.139544241022334</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.153116477798426</v>
+        <v>-8.190769940771229</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.412353147775988</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.51449268641498</v>
+        <v>-17.54209126080533</v>
       </c>
       <c r="F84" t="n">
-        <v>7.198538157627152</v>
+        <v>7.100921947639242</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.842737254329625</v>
+        <v>-7.849820190167</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.673123074688633</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.360294726899</v>
+        <v>-18.38625676343415</v>
       </c>
       <c r="F85" t="n">
-        <v>7.338023552102902</v>
+        <v>7.262507149311825</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.563766465378126</v>
+        <v>-7.591757808853737</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.905511633397735</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.65054117195111</v>
+        <v>-19.67023199542506</v>
       </c>
       <c r="F86" t="n">
-        <v>7.221554426022906</v>
+        <v>7.128337229789817</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.641364544321037</v>
+        <v>-7.664983058647511</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.129888338590686</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.67091597852671</v>
+        <v>-20.70021655228649</v>
       </c>
       <c r="F87" t="n">
-        <v>7.328021032731823</v>
+        <v>7.241088141862762</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.054214038778148</v>
+        <v>-7.085373719541456</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.355686958127067</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.92845785108019</v>
+        <v>-21.97477841853421</v>
       </c>
       <c r="F88" t="n">
-        <v>7.674129150655693</v>
+        <v>7.579314693475913</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.128840164975987</v>
+        <v>-7.150874510658611</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.611136921828679</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.66136814751389</v>
+        <v>-23.67481394253234</v>
       </c>
       <c r="F89" t="n">
-        <v>7.491046387716996</v>
+        <v>7.397724453061173</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.831239029080711</v>
+        <v>-6.83502270460197</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.910497772851122</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.82442287045862</v>
+        <v>-24.84739986194585</v>
       </c>
       <c r="F90" t="n">
-        <v>7.84521936419137</v>
+        <v>7.734013343853748</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.208192612499689</v>
+        <v>-7.243384722538248</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.27642678202354</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.56055387339139</v>
+        <v>-26.58482700285995</v>
       </c>
       <c r="F91" t="n">
-        <v>7.903768142499568</v>
+        <v>7.816651959390724</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.77100134370593</v>
+        <v>-6.779589894370102</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.724596052461976</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.55883205612404</v>
+        <v>-28.57813011051275</v>
       </c>
       <c r="F92" t="n">
-        <v>7.592773580797207</v>
+        <v>7.488637403994118</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.998074244192827</v>
+        <v>-7.036434691519084</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.261383049565694</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.3986279129576</v>
+        <v>-30.43067787031414</v>
       </c>
       <c r="F93" t="n">
-        <v>7.656873495510299</v>
+        <v>7.556560271136993</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.215586580251385</v>
+        <v>-6.249194521646095</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.895051330123979</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.34348950009601</v>
+        <v>-32.38936492925341</v>
       </c>
       <c r="F94" t="n">
-        <v>7.61987464767958</v>
+        <v>7.498692292576564</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.617808308154893</v>
+        <v>-6.644739175100323</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.614149044530534</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.73918453558925</v>
+        <v>-34.771548708214</v>
       </c>
       <c r="F95" t="n">
-        <v>7.618460678972674</v>
+        <v>7.485599989734838</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.914948030096829</v>
+        <v>-5.959789167329741</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.411827342957801</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.18595264446807</v>
+        <v>-37.21313226516749</v>
       </c>
       <c r="F96" t="n">
-        <v>7.323412542131535</v>
+        <v>7.215243936053194</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.819426588563595</v>
+        <v>-5.86951773923604</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.266549197653785</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.13344578447767</v>
+        <v>-39.16336169647101</v>
       </c>
       <c r="F97" t="n">
-        <v>7.283297726224487</v>
+        <v>7.171306167716362</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.398666159836203</v>
+        <v>-5.433740439149187</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.159484428785666</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.5486876281136</v>
+        <v>-41.5745711108317</v>
       </c>
       <c r="F98" t="n">
-        <v>7.209928461099453</v>
+        <v>7.092411950792121</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.545548705417528</v>
+        <v>-5.606886144231015</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.071450896863537</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.01231862305256</v>
+        <v>-44.01059043907745</v>
       </c>
       <c r="F99" t="n">
-        <v>7.019775854626224</v>
+        <v>6.909669587727308</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.308028147262934</v>
+        <v>-5.349399824242788</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.982238564356633</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.12020556517614</v>
+        <v>-46.11825481205273</v>
       </c>
       <c r="F100" t="n">
-        <v>6.763952257098897</v>
+        <v>6.636930734928471</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.330874215721746</v>
+        <v>-5.394502807532534</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.882968558503352</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.52747419638148</v>
+        <v>-48.53247545606702</v>
       </c>
       <c r="F101" t="n">
-        <v>6.762904872871559</v>
+        <v>6.631667629186096</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.306849840007178</v>
+        <v>-5.377561367655341</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.763386830568215</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.06493268704493</v>
+        <v>-51.06325687228119</v>
       </c>
       <c r="F102" t="n">
-        <v>5.948930220595765</v>
+        <v>5.838876322908217</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.015559194081615</v>
+        <v>-5.069970804691828</v>
       </c>
     </row>
   </sheetData>
